--- a/biology/Zoologie/Atlides/Atlides.xlsx
+++ b/biology/Zoologie/Atlides/Atlides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Atlides regroupe des insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae.
-Ils résident en Amérique dans le sud de l'Amérique du Nord et en Amérique du Sud[1].
+Ils résident en Amérique dans le sud de l'Amérique du Nord et en Amérique du Sud.
 </t>
         </is>
       </c>
@@ -512,25 +524,27 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Atlides atys (Cramer, [1779])
-Atlides bacis (Godman &amp; Salvin, [1887])
+Atlides atys (Cramer, )
+Atlides bacis (Godman &amp; Salvin, )
 Atlides browni Constantino, Salazar et Johnson, 1993
 Atlides carpasia (Hewitson, 1868)
 Atlides cosa (Hewitson, 1867)
 Atlides dahnersi Bálint, Constantino et Johnson, 2003
-Atlides gaumeri (Godman, [1901])
-Atlides halesus (Cramer, [1777])
+Atlides gaumeri (Godman, )
+Atlides halesus (Cramer, )
 Atlides halljasoni Bálint et Wojtusiak, 2006
 Atlides havila (Hewitson, 1865)
-Atlides inachus (Cramer, [1775])
+Atlides inachus (Cramer, )
 Atlides misma D'Abrera, 1995
 Atlides polama (Schaus, 1902)
 Atlides polybe (Linnaeus, 1763)
-Atlides rustan (Stoll, [1790])
-Atlides zava (Hewitson, 1878)[1].
+Atlides rustan (Stoll, )
+Atlides zava (Hewitson, 1878).
 Sur les autres projets Wikimedia :
 Atlides, sur Wikimedia Commons
 </t>
